--- a/conf/shell_web/equipment.xlsx
+++ b/conf/shell_web/equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12940"/>
+    <workbookView windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -230,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,6 +250,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -250,27 +318,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,92 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,25 +400,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,49 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,91 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,8 +585,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +617,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +638,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -659,8 +650,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,152 +684,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,17 +857,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1193,10 +1187,10 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1212,7 +1206,9 @@
     <col min="10" max="12" width="21.8660714285714" customWidth="1"/>
     <col min="13" max="13" width="40.9285714285714" customWidth="1"/>
     <col min="14" max="14" width="21.8660714285714" customWidth="1"/>
-    <col min="15" max="17" width="17.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="17.8571428571429" customWidth="1"/>
+    <col min="16" max="16" width="28.125" customWidth="1"/>
+    <col min="17" max="17" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:17">
@@ -1294,16 +1290,16 @@
         <v>23</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10">
         <v>1</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>1</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>0.1</v>
       </c>
     </row>
@@ -1314,31 +1310,31 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>40</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>1</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>0.1</v>
       </c>
     </row>
@@ -1349,22 +1345,22 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1378,16 +1374,16 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1398,17 +1394,17 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" ht="36" spans="1:9">
       <c r="A7" s="3" t="s">
@@ -1417,16 +1413,16 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1437,16 +1433,16 @@
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1457,16 +1453,16 @@
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1477,16 +1473,16 @@
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
